--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1240"/>
+  <dimension ref="A1:G1171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29337,10 +29337,8 @@
       </c>
       <c r="E1108" t="inlineStr"/>
       <c r="F1108" t="inlineStr"/>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1108" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1109">
@@ -29366,10 +29364,8 @@
       </c>
       <c r="E1109" t="inlineStr"/>
       <c r="F1109" t="inlineStr"/>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1109" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1110">
@@ -29395,10 +29391,8 @@
       </c>
       <c r="E1110" t="inlineStr"/>
       <c r="F1110" t="inlineStr"/>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1110" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1111">
@@ -29424,10 +29418,8 @@
       </c>
       <c r="E1111" t="inlineStr"/>
       <c r="F1111" t="inlineStr"/>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1111" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1112">
@@ -29453,10 +29445,8 @@
       </c>
       <c r="E1112" t="inlineStr"/>
       <c r="F1112" t="inlineStr"/>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1112" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1113">
@@ -29490,10 +29480,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1113" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1114">
@@ -29523,10 +29511,8 @@
         </is>
       </c>
       <c r="F1114" t="inlineStr"/>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1115">
@@ -29556,10 +29542,8 @@
         </is>
       </c>
       <c r="F1115" t="inlineStr"/>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1116">
@@ -29585,10 +29569,8 @@
       </c>
       <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr"/>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1116" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1117">
@@ -29614,10 +29596,8 @@
       </c>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1118">
@@ -29643,10 +29623,8 @@
       </c>
       <c r="E1118" t="inlineStr"/>
       <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1118" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1119">
@@ -29676,10 +29654,8 @@
         </is>
       </c>
       <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1119" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1120">
@@ -29705,10 +29681,8 @@
       </c>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1120" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1121">
@@ -29734,10 +29708,8 @@
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr"/>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1121" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1122">
@@ -29763,10 +29735,8 @@
       </c>
       <c r="E1122" t="inlineStr"/>
       <c r="F1122" t="inlineStr"/>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1122" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1123">
@@ -29792,10 +29762,8 @@
       </c>
       <c r="E1123" t="inlineStr"/>
       <c r="F1123" t="inlineStr"/>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1123" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1124">
@@ -29813,10 +29781,8 @@
       <c r="D1124" t="inlineStr"/>
       <c r="E1124" t="inlineStr"/>
       <c r="F1124" t="inlineStr"/>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1124" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1125">
@@ -29842,10 +29808,8 @@
       </c>
       <c r="E1125" t="inlineStr"/>
       <c r="F1125" t="inlineStr"/>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1125" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1126">
@@ -29863,10 +29827,8 @@
       <c r="D1126" t="inlineStr"/>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr"/>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1126" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1127">
@@ -29909,10 +29871,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1128" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1129">
@@ -29942,10 +29902,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1129" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1130">
@@ -29975,10 +29933,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1130" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1131">
@@ -30008,10 +29964,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1131" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1132">
@@ -30041,10 +29995,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1133">
@@ -30070,10 +30022,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -30103,10 +30053,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1134" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1135">
@@ -30136,10 +30084,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -30165,10 +30111,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -30186,10 +30130,8 @@
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1137" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1138">
@@ -30215,10 +30157,8 @@
         </is>
       </c>
       <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1138" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1139">
@@ -30240,10 +30180,8 @@
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
@@ -30265,10 +30203,8 @@
       </c>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1140" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1141">
@@ -30286,10 +30222,8 @@
       <c r="D1141" t="inlineStr"/>
       <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1142">
@@ -30311,10 +30245,8 @@
       </c>
       <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1142" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1143">
@@ -30336,10 +30268,8 @@
       </c>
       <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1143" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1144">
@@ -30357,10 +30287,8 @@
       <c r="D1144" t="inlineStr"/>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1144" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1145">
@@ -30382,10 +30310,8 @@
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1145" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1146">
@@ -30415,10 +30341,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1147">
@@ -30440,24 +30364,38 @@
       </c>
       <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1147" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1148" t="inlineStr">
+        <is>
+          <t>Building Permits PrelMAR</t>
+        </is>
+      </c>
       <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
+      <c r="D1148" t="inlineStr">
+        <is>
+          <t>1.459M</t>
+        </is>
+      </c>
       <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr"/>
+      <c r="F1148" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
+      <c r="G1148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1149">
       <c r="A1149" t="inlineStr">
@@ -30467,23 +30405,19 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr"/>
       <c r="D1149" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1.501M</t>
+        </is>
+      </c>
+      <c r="E1149" t="inlineStr"/>
       <c r="F1149" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.42M</t>
         </is>
       </c>
       <c r="G1149" t="inlineStr">
@@ -30500,25 +30434,17 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1150" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>-1%</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr"/>
+      <c r="F1150" t="inlineStr"/>
       <c r="G1150" t="inlineStr">
         <is>
           <t>2</t>
@@ -30533,28 +30459,24 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr"/>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>11.2%</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr"/>
       <c r="F1151" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30566,24 +30488,16 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>147.953</t>
-        </is>
-      </c>
+      <c r="D1152" t="inlineStr"/>
       <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>148.1</t>
-        </is>
-      </c>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30595,24 +30509,20 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30624,19 +30534,15 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1154" t="inlineStr"/>
       <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>1950K</t>
         </is>
       </c>
       <c r="G1154" t="inlineStr">
@@ -30653,25 +30559,13 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="F1155" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D1155" t="inlineStr"/>
+      <c r="E1155" t="inlineStr"/>
+      <c r="F1155" t="inlineStr"/>
       <c r="G1155" t="inlineStr">
         <is>
           <t>3</t>
@@ -30681,80 +30575,72 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
-      <c r="F1156" t="inlineStr">
-        <is>
-          <t>54.4</t>
-        </is>
-      </c>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="E1156" t="inlineStr"/>
+      <c r="F1156" t="inlineStr"/>
       <c r="G1156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
       <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
       <c r="G1157" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr"/>
       <c r="D1158" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+      <c r="F1158" t="inlineStr"/>
       <c r="G1158" t="inlineStr">
         <is>
           <t>3</t>
@@ -30764,30 +30650,22 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr"/>
       <c r="D1159" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1159" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+          <t>8.7</t>
+        </is>
+      </c>
+      <c r="E1159" t="inlineStr"/>
+      <c r="F1159" t="inlineStr"/>
       <c r="G1159" t="inlineStr">
         <is>
           <t>3</t>
@@ -30797,30 +30675,22 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1160" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+          <t>48.30</t>
+        </is>
+      </c>
+      <c r="E1160" t="inlineStr"/>
+      <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -30830,26 +30700,18 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="D1161" t="inlineStr"/>
       <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1161" t="inlineStr"/>
       <c r="G1161" t="inlineStr">
         <is>
           <t>3</t>
@@ -30859,12 +30721,12 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr"/>
@@ -30873,27 +30735,23 @@
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
+      <c r="D1163" t="inlineStr"/>
       <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
@@ -30905,20 +30763,16 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>590</t>
-        </is>
-      </c>
+      <c r="D1164" t="inlineStr"/>
       <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
@@ -30930,88 +30784,96 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr"/>
+          <t>11:00 AM</t>
+        </is>
+      </c>
+      <c r="B1165" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateAPR/17</t>
+        </is>
+      </c>
       <c r="C1165" t="inlineStr"/>
       <c r="D1165" t="inlineStr"/>
       <c r="E1165" t="inlineStr"/>
       <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr"/>
+      <c r="G1165" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B1166" t="inlineStr">
+        <is>
+          <t>5-Year TIPS Auction</t>
+        </is>
+      </c>
       <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
+      <c r="D1166" t="inlineStr">
+        <is>
+          <t>2.121%</t>
+        </is>
+      </c>
       <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr"/>
+      <c r="G1166" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr"/>
+          <t>03:30 PM</t>
+        </is>
+      </c>
+      <c r="B1167" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetAPR/16</t>
+        </is>
+      </c>
       <c r="C1167" t="inlineStr"/>
       <c r="D1167" t="inlineStr"/>
       <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr"/>
+      <c r="G1167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1168" t="inlineStr"/>
       <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1168" t="inlineStr"/>
       <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1168" t="inlineStr"/>
+      <c r="G1168" t="inlineStr"/>
     </row>
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>4.175%</t>
-        </is>
-      </c>
+      <c r="D1169" t="inlineStr"/>
       <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr"/>
       <c r="G1169" t="inlineStr">
@@ -31023,20 +30885,16 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>4.000%</t>
-        </is>
-      </c>
+      <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr"/>
       <c r="F1170" t="inlineStr"/>
       <c r="G1170" t="inlineStr">
@@ -31048,1700 +30906,15 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1171" t="inlineStr"/>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr"/>
       <c r="E1171" t="inlineStr"/>
       <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:40 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr"/>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr"/>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr"/>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr"/>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Export Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Import Prices MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>-20</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Export Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>Redbook YoYAPR/12</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>-1.057M</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr"/>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr"/>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>6.61%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexAPR/11</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr"/>
-      <c r="F1193" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationMAR</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr"/>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr"/>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr"/>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr"/>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr"/>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1233" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr"/>
-      <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr"/>
-      <c r="G1233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1234" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr"/>
-      <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr"/>
-      <c r="G1234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1235" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr"/>
-      <c r="G1235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1236" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr"/>
-      <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr"/>
-      <c r="G1236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1237" t="inlineStr"/>
-      <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr"/>
-      <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr"/>
-      <c r="G1237" t="inlineStr"/>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1238" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr"/>
-      <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr"/>
-      <c r="G1238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr"/>
-      <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr"/>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr"/>
-      <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr"/>
-      <c r="E1240" t="inlineStr"/>
-      <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr"/>
+      <c r="G1171" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1232"/>
+  <dimension ref="A1:G1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29858,10 +29858,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1127" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1128">
@@ -29887,10 +29885,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1128" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1129">
@@ -29908,10 +29904,8 @@
       <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr"/>
       <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1130">
@@ -29937,10 +29931,8 @@
         </is>
       </c>
       <c r="F1130" t="inlineStr"/>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1130" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1131">
@@ -29962,10 +29954,8 @@
       </c>
       <c r="E1131" t="inlineStr"/>
       <c r="F1131" t="inlineStr"/>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1131" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1132">
@@ -29987,10 +29977,8 @@
       </c>
       <c r="E1132" t="inlineStr"/>
       <c r="F1132" t="inlineStr"/>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1132" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1133">
@@ -30008,10 +29996,8 @@
       <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr"/>
       <c r="F1133" t="inlineStr"/>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1134">
@@ -30033,10 +30019,8 @@
       </c>
       <c r="E1134" t="inlineStr"/>
       <c r="F1134" t="inlineStr"/>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1134" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1135">
@@ -30058,10 +30042,8 @@
       </c>
       <c r="E1135" t="inlineStr"/>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1135" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1136">
@@ -30079,10 +30061,8 @@
       <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1136" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1137">
@@ -30104,10 +30084,8 @@
       </c>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1137" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1138">
@@ -30137,10 +30115,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1139">
@@ -30162,24 +30138,38 @@
       </c>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1139" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Autos MoMMAR</t>
+        </is>
+      </c>
       <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
+      <c r="D1140" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr"/>
+      <c r="F1140" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="G1140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1141">
       <c r="A1141" t="inlineStr">
@@ -30189,28 +30179,24 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr"/>
       <c r="D1141" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1141" t="inlineStr"/>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1141" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -30222,85 +30208,77 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr"/>
       <c r="D1142" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1142" t="inlineStr"/>
       <c r="F1142" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr"/>
       <c r="D1143" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1143" t="inlineStr"/>
       <c r="F1143" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr"/>
       <c r="D1144" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="E1144" t="inlineStr"/>
       <c r="F1144" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="G1144" t="inlineStr">
@@ -30312,24 +30290,24 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr"/>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr"/>
       <c r="F1145" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1145" t="inlineStr">
@@ -30341,24 +30319,24 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr"/>
       <c r="D1146" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.9%</t>
         </is>
       </c>
       <c r="E1146" t="inlineStr"/>
       <c r="F1146" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1146" t="inlineStr">
@@ -30370,28 +30348,24 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr"/>
       <c r="D1147" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1147" t="inlineStr"/>
       <c r="F1147" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1147" t="inlineStr">
@@ -30408,28 +30382,24 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr"/>
       <c r="D1148" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1148" t="inlineStr"/>
       <c r="F1148" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30441,13 +30411,21 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
+      <c r="D1149" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
+      <c r="F1149" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1149" t="inlineStr">
         <is>
           <t>2</t>
@@ -30462,19 +30440,23 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr"/>
       <c r="D1150" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F1150" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1150" t="inlineStr">
@@ -30486,92 +30468,72 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr"/>
       <c r="D1151" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1151" t="inlineStr">
-        <is>
-          <t>50.3</t>
-        </is>
-      </c>
+          <t>2.553M</t>
+        </is>
+      </c>
+      <c r="E1151" t="inlineStr"/>
+      <c r="F1151" t="inlineStr"/>
       <c r="G1151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr"/>
       <c r="D1152" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>61.4</t>
-        </is>
-      </c>
+          <t>-1.6M</t>
+        </is>
+      </c>
+      <c r="E1152" t="inlineStr"/>
+      <c r="F1152" t="inlineStr"/>
       <c r="G1152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr"/>
       <c r="D1153" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.36M</t>
         </is>
       </c>
       <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
+      <c r="F1153" t="inlineStr"/>
       <c r="G1153" t="inlineStr">
         <is>
           <t>3</t>
@@ -30581,39 +30543,43 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
+      <c r="D1154" t="inlineStr">
+        <is>
+          <t>0.681M</t>
+        </is>
+      </c>
       <c r="E1154" t="inlineStr"/>
       <c r="F1154" t="inlineStr"/>
       <c r="G1154" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr"/>
       <c r="D1155" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1155" t="inlineStr"/>
@@ -30627,18 +30593,18 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr"/>
       <c r="D1156" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1156" t="inlineStr"/>
@@ -30652,65 +30618,97 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr"/>
+      <c r="D1157" t="inlineStr">
+        <is>
+          <t>-0.338M</t>
+        </is>
+      </c>
       <c r="E1157" t="inlineStr"/>
       <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr"/>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr"/>
+      <c r="D1158" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1158" t="inlineStr"/>
       <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr"/>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
+      <c r="D1159" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1159" t="inlineStr"/>
       <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr"/>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr"/>
       <c r="D1160" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1160" t="inlineStr"/>
       <c r="G1160" t="inlineStr">
         <is>
           <t>3</t>
@@ -30720,18 +30718,18 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr"/>
       <c r="D1161" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1161" t="inlineStr"/>
@@ -30745,74 +30743,82 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr"/>
       <c r="D1162" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1162" t="inlineStr"/>
       <c r="F1162" t="inlineStr"/>
       <c r="G1162" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr"/>
+      <c r="D1163" t="inlineStr">
+        <is>
+          <t>$-13.3B</t>
+        </is>
+      </c>
       <c r="E1163" t="inlineStr"/>
       <c r="F1163" t="inlineStr"/>
       <c r="G1163" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr"/>
+      <c r="D1164" t="inlineStr">
+        <is>
+          <t>$-48.8B</t>
+        </is>
+      </c>
       <c r="E1164" t="inlineStr"/>
       <c r="F1164" t="inlineStr"/>
       <c r="G1164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
+          <t>Thursday April 17 2025</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -30830,24 +30836,24 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr"/>
       <c r="D1166" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1166" t="inlineStr"/>
       <c r="F1166" t="inlineStr">
         <is>
-          <t>1.1%</t>
+          <t>1.4M</t>
         </is>
       </c>
       <c r="G1166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30859,24 +30865,24 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr"/>
       <c r="D1167" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>1.501M</t>
         </is>
       </c>
       <c r="E1167" t="inlineStr"/>
       <c r="F1167" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>1.42M</t>
         </is>
       </c>
       <c r="G1167" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -30888,19 +30894,19 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr"/>
       <c r="D1168" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E1168" t="inlineStr"/>
       <c r="F1168" t="inlineStr">
         <is>
-          <t>-22</t>
+          <t>-4%</t>
         </is>
       </c>
       <c r="G1168" t="inlineStr">
@@ -30917,24 +30923,24 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr"/>
       <c r="D1169" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1169" t="inlineStr"/>
       <c r="F1169" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-5.3%</t>
         </is>
       </c>
       <c r="G1169" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -30946,71 +30952,67 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAR</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="D1170" t="inlineStr"/>
       <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1170" t="inlineStr"/>
       <c r="G1170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr"/>
       <c r="D1171" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
+      <c r="F1171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
+      <c r="D1172" t="inlineStr"/>
       <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
+      <c r="F1172" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1172" t="inlineStr">
         <is>
           <t>3</t>
@@ -31020,12 +31022,12 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr"/>
@@ -31041,81 +31043,93 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr"/>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr"/>
       <c r="F1174" t="inlineStr"/>
       <c r="G1174" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>Philly Fed CAPEX IndexAPR</t>
+        </is>
+      </c>
       <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr"/>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr"/>
+      <c r="G1175" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr"/>
       <c r="D1176" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1176" t="inlineStr"/>
       <c r="F1176" t="inlineStr"/>
       <c r="G1176" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr"/>
       <c r="D1177" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1177" t="inlineStr"/>
@@ -31129,16 +31143,20 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>48.30</t>
+        </is>
+      </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
       <c r="G1178" t="inlineStr">
@@ -31150,12 +31168,12 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr"/>
@@ -31171,12 +31189,12 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr"/>
@@ -31192,113 +31210,85 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1181" t="inlineStr"/>
       <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1181" t="inlineStr"/>
       <c r="G1181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
+      <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1182" t="inlineStr"/>
       <c r="G1182" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1183" t="inlineStr"/>
       <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1183" t="inlineStr"/>
       <c r="G1183" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr"/>
       <c r="D1184" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1184" t="inlineStr"/>
       <c r="G1184" t="inlineStr">
         <is>
           <t>3</t>
@@ -31308,26 +31298,18 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1185" t="inlineStr"/>
       <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1185" t="inlineStr"/>
       <c r="G1185" t="inlineStr">
         <is>
           <t>3</t>
@@ -31337,55 +31319,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMMAR</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr"/>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1186" t="inlineStr"/>
       <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr"/>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
+      <c r="D1187" t="inlineStr"/>
       <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
           <t>3</t>
@@ -31395,26 +31353,18 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="D1188" t="inlineStr"/>
       <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
           <t>3</t>
@@ -31424,1050 +31374,15 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMMAR</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1189" t="inlineStr"/>
       <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D1189" t="inlineStr"/>
       <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>08:15 AM</t>
-        </is>
-      </c>
-      <c r="B1190" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1190" t="inlineStr"/>
-      <c r="D1190" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1190" t="inlineStr"/>
-      <c r="F1190" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="G1190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1191" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1191" t="inlineStr"/>
-      <c r="D1191" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1191" t="inlineStr"/>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1191" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1192" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1192" t="inlineStr"/>
-      <c r="D1192" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="E1192" t="inlineStr"/>
-      <c r="F1192" t="inlineStr"/>
-      <c r="G1192" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1193" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1193" t="inlineStr"/>
-      <c r="D1193" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1193" t="inlineStr"/>
-      <c r="G1193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1194" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
-      <c r="G1194" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1195" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
-      <c r="G1195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1196" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
-      <c r="G1196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1197" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1197" t="inlineStr"/>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr"/>
-      <c r="F1197" t="inlineStr"/>
-      <c r="G1197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1198" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1198" t="inlineStr"/>
-      <c r="D1198" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr"/>
-      <c r="F1198" t="inlineStr"/>
-      <c r="G1198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1199" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1199" t="inlineStr"/>
-      <c r="D1199" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr"/>
-      <c r="F1199" t="inlineStr"/>
-      <c r="G1199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1200" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
-      <c r="G1200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1201" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
-      <c r="G1201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1202" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1202" t="inlineStr"/>
-      <c r="D1202" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
-      <c r="G1202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
-      <c r="E1203" t="inlineStr"/>
-      <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1204" t="inlineStr"/>
-      <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1205" t="inlineStr"/>
-      <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1207" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1207" t="inlineStr"/>
-      <c r="D1207" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr"/>
-      <c r="G1207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1208" t="inlineStr"/>
-      <c r="C1208" t="inlineStr"/>
-      <c r="D1208" t="inlineStr"/>
-      <c r="E1208" t="inlineStr"/>
-      <c r="F1208" t="inlineStr"/>
-      <c r="G1208" t="inlineStr"/>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1209" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1209" t="inlineStr"/>
-      <c r="F1209" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1209" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1210" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1210" t="inlineStr"/>
-      <c r="F1210" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1210" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1211" t="inlineStr"/>
-      <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1213" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr"/>
-      <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr"/>
-      <c r="G1213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1214" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1214" t="inlineStr"/>
-      <c r="D1214" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr"/>
-      <c r="G1214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1215" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1215" t="inlineStr"/>
-      <c r="D1215" t="inlineStr"/>
-      <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr"/>
-      <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr"/>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1217" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1217" t="inlineStr"/>
-      <c r="D1217" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
-      <c r="G1217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1218" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
-      <c r="G1218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1220" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
-      <c r="G1220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
-      <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1223" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr"/>
-      <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
-      <c r="G1223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1224" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr"/>
-      <c r="E1224" t="inlineStr"/>
-      <c r="F1224" t="inlineStr"/>
-      <c r="G1224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1225" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1225" t="inlineStr"/>
-      <c r="D1225" t="inlineStr"/>
-      <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
-      <c r="G1225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1226" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr"/>
-      <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
-      <c r="G1226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1227" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr"/>
-      <c r="G1227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1228" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1228" t="inlineStr"/>
-      <c r="D1228" t="inlineStr"/>
-      <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr"/>
-      <c r="G1228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1229" t="inlineStr"/>
-      <c r="C1229" t="inlineStr"/>
-      <c r="D1229" t="inlineStr"/>
-      <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr"/>
-      <c r="G1229" t="inlineStr"/>
-    </row>
-    <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1230" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr"/>
-      <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr"/>
-      <c r="G1230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1231" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr"/>
-      <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr"/>
-      <c r="G1231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1232" t="inlineStr"/>
-      <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr"/>
-      <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr"/>
-      <c r="G1232" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
+      <c r="G1189" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1278"/>
+  <dimension ref="A1:G1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30805,10 +30805,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30838,10 +30836,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30871,10 +30867,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30904,10 +30898,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30937,10 +30929,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30966,10 +30956,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -30999,10 +30987,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31032,10 +31018,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31061,10 +31045,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31082,10 +31064,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31111,10 +31091,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31136,10 +31114,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31161,10 +31137,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31182,10 +31156,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31207,10 +31179,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31232,10 +31202,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31253,10 +31221,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31278,10 +31244,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31311,10 +31275,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31336,88 +31298,82 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexAPR/11</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>292.3</t>
+        </is>
+      </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>961.4</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>172.7</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31429,28 +31385,24 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31462,24 +31414,24 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31491,13 +31443,13 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -31508,7 +31460,7 @@
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31520,19 +31472,19 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -31549,23 +31501,19 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -31577,78 +31525,82 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
       <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>78.0%</t>
+        </is>
+      </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -31660,28 +31612,24 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31693,28 +31641,24 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31731,42 +31675,50 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1200" t="inlineStr">
         <is>
           <t>2</t>
@@ -31776,22 +31728,30 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -31801,90 +31761,122 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr"/>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>2.553M</t>
         </is>
       </c>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>-1.6M</t>
+        </is>
+      </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>0.36M</t>
+        </is>
+      </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0.681M</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -31894,18 +31886,18 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -31919,18 +31911,18 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>-0.338M</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -31944,110 +31936,122 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr"/>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
           <t>2</t>
@@ -32057,55 +32061,47 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
           <t>3</t>
@@ -32115,122 +32111,126 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
       <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr"/>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>3.945%</t>
+          <t>1.501M</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
+      </c>
       <c r="G1220" t="inlineStr">
         <is>
           <t>2</t>
@@ -32240,35 +32240,51 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/12</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1222" t="inlineStr">
         <is>
           <t>2</t>
@@ -32278,22 +32294,22 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
+      <c r="D1223" t="inlineStr"/>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -32303,20 +32319,16 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr">
-        <is>
-          <t>292.3</t>
-        </is>
-      </c>
+      <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr">
@@ -32328,18 +32340,18 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>961.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -32353,18 +32365,18 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>172.7</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -32383,24 +32395,20 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32412,24 +32420,20 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32441,50 +32445,38 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
-      <c r="D1230" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D1230" t="inlineStr"/>
       <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
           <t>3</t>
@@ -32494,26 +32486,18 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -32523,55 +32507,39 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
-      <c r="D1233" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
+      <c r="D1233" t="inlineStr"/>
       <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
           <t>3</t>
@@ -32581,26 +32549,18 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -32610,26 +32570,22 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -32639,26 +32595,18 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
           <t>3</t>
@@ -32668,1012 +32616,70 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+      <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
       <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr"/>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr"/>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr"/>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1278"/>
+  <dimension ref="A1:G1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30809,10 +30809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30846,10 +30844,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30883,10 +30879,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30920,10 +30914,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30957,10 +30949,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30990,10 +30980,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -31027,10 +31015,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31064,10 +31050,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31097,10 +31081,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31118,10 +31100,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31151,10 +31131,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31176,10 +31154,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31201,10 +31177,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31222,10 +31196,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31247,10 +31219,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31272,10 +31242,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31293,10 +31261,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31318,10 +31284,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31351,10 +31315,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31376,88 +31338,82 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexAPR/11</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>292.3</t>
+        </is>
+      </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>961.4</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>172.7</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31469,28 +31425,24 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31502,24 +31454,24 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31531,13 +31483,13 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -31548,7 +31500,7 @@
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31560,19 +31512,19 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -31589,23 +31541,19 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -31617,78 +31565,82 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
       <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>78.0%</t>
+        </is>
+      </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -31700,28 +31652,24 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31733,28 +31681,24 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31771,42 +31715,50 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1200" t="inlineStr">
         <is>
           <t>2</t>
@@ -31816,22 +31768,30 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -31841,90 +31801,122 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr"/>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>2.553M</t>
         </is>
       </c>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>-1.6M</t>
+        </is>
+      </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>0.36M</t>
+        </is>
+      </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0.681M</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -31934,18 +31926,18 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -31959,18 +31951,18 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>-0.338M</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -31984,110 +31976,122 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr"/>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
           <t>2</t>
@@ -32097,55 +32101,47 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
           <t>3</t>
@@ -32155,122 +32151,126 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
       <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr"/>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>3.945%</t>
+          <t>1.501M</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
+      </c>
       <c r="G1220" t="inlineStr">
         <is>
           <t>2</t>
@@ -32280,35 +32280,51 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/12</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1222" t="inlineStr">
         <is>
           <t>2</t>
@@ -32318,22 +32334,22 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
+      <c r="D1223" t="inlineStr"/>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -32343,20 +32359,16 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr">
-        <is>
-          <t>292.3</t>
-        </is>
-      </c>
+      <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr">
@@ -32368,18 +32380,18 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>961.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -32393,18 +32405,18 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>172.7</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -32423,24 +32435,20 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32452,24 +32460,20 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32481,50 +32485,42 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>57Bcf</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
           <t>3</t>
@@ -32534,26 +32530,18 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -32563,55 +32551,43 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
           <t>3</t>
@@ -32621,26 +32597,22 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -32650,26 +32622,22 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -32679,26 +32647,18 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
           <t>3</t>
@@ -32708,1020 +32668,70 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+      <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
       <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr"/>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>57Bcf</t>
-        </is>
-      </c>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr"/>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1278"/>
+  <dimension ref="A1:G1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30809,10 +30809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30846,10 +30844,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30883,10 +30879,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30920,10 +30914,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30957,10 +30949,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30990,10 +30980,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -31027,10 +31015,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31064,10 +31050,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31097,10 +31081,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31118,10 +31100,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31151,10 +31131,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31180,10 +31158,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31209,10 +31185,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31230,10 +31204,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31259,10 +31231,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31288,10 +31258,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31309,10 +31277,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31338,10 +31304,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31375,10 +31339,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31400,88 +31362,82 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MBA Mortgage Market IndexAPR/11</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>292.3</t>
+        </is>
+      </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>961.4</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>172.7</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31493,28 +31449,24 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
       <c r="F1189" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1189" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31526,24 +31478,24 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31555,13 +31507,13 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
@@ -31572,7 +31524,7 @@
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31584,19 +31536,19 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
@@ -31613,23 +31565,19 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -31641,78 +31589,82 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
       <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>78.0%</t>
+        </is>
+      </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -31724,28 +31676,24 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31757,28 +31705,24 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31795,42 +31739,50 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1200" t="inlineStr">
         <is>
           <t>2</t>
@@ -31840,22 +31792,30 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1201" t="inlineStr">
         <is>
           <t>3</t>
@@ -31865,90 +31825,122 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr"/>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>2.553M</t>
         </is>
       </c>
       <c r="E1202" t="inlineStr"/>
       <c r="F1202" t="inlineStr"/>
       <c r="G1202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>-1.6M</t>
+        </is>
+      </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>0.36M</t>
+        </is>
+      </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0.681M</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -31958,18 +31950,18 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -31983,18 +31975,18 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>-0.338M</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32008,110 +32000,122 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr"/>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
           <t>2</t>
@@ -32121,55 +32125,47 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
           <t>3</t>
@@ -32179,122 +32175,126 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1216" t="inlineStr">
-        <is>
-          <t>Import Prices YoYMAR</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1216" t="inlineStr"/>
       <c r="C1216" t="inlineStr"/>
-      <c r="D1216" t="inlineStr">
-        <is>
-          <t>2.0%</t>
-        </is>
-      </c>
+      <c r="D1216" t="inlineStr"/>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
+      <c r="G1216" t="inlineStr"/>
     </row>
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr"/>
+      <c r="F1217" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1217" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>3.945%</t>
+          <t>1.501M</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr"/>
-      <c r="F1218" t="inlineStr"/>
+      <c r="F1218" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr"/>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E1219" t="inlineStr"/>
-      <c r="F1219" t="inlineStr"/>
+      <c r="F1219" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
       <c r="G1219" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
+      </c>
       <c r="G1220" t="inlineStr">
         <is>
           <t>2</t>
@@ -32304,35 +32304,51 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/12</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>223K</t>
+        </is>
+      </c>
       <c r="E1221" t="inlineStr"/>
       <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1222" t="inlineStr">
         <is>
           <t>2</t>
@@ -32342,22 +32358,22 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
-      <c r="D1223" t="inlineStr">
-        <is>
-          <t>20%</t>
-        </is>
-      </c>
+      <c r="D1223" t="inlineStr"/>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
           <t>3</t>
@@ -32367,20 +32383,16 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
-      <c r="D1224" t="inlineStr">
-        <is>
-          <t>292.3</t>
-        </is>
-      </c>
+      <c r="D1224" t="inlineStr"/>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr">
@@ -32392,18 +32404,18 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>961.4</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
@@ -32417,18 +32429,18 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
       <c r="D1226" t="inlineStr">
         <is>
-          <t>172.7</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="E1226" t="inlineStr"/>
@@ -32447,24 +32459,20 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
       <c r="D1227" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32476,24 +32484,20 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32505,50 +32509,42 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>57Bcf</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
           <t>3</t>
@@ -32558,26 +32554,18 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
-      <c r="D1231" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="D1231" t="inlineStr"/>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -32587,55 +32575,43 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
-      <c r="D1232" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1232" t="inlineStr"/>
       <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
           <t>3</t>
@@ -32645,26 +32621,22 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
       <c r="D1234" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -32674,26 +32646,22 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
       <c r="D1235" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -32703,26 +32671,18 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
-      <c r="D1236" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="D1236" t="inlineStr"/>
       <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
           <t>3</t>
@@ -32732,1028 +32692,70 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
-      <c r="D1237" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1237" t="inlineStr"/>
       <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
-      <c r="D1238" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+      <c r="D1238" t="inlineStr"/>
       <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1239" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr"/>
       <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
+      <c r="G1239" t="inlineStr"/>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1240" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr"/>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
-      <c r="G1240" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1241" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1241" t="inlineStr"/>
-      <c r="D1241" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
-      <c r="E1241" t="inlineStr"/>
-      <c r="F1241" t="inlineStr"/>
-      <c r="G1241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
-      <c r="E1242" t="inlineStr"/>
-      <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1243" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
-      <c r="E1243" t="inlineStr"/>
-      <c r="F1243" t="inlineStr"/>
-      <c r="G1243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1244" t="inlineStr"/>
-      <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>57Bcf</t>
-        </is>
-      </c>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr">
-        <is>
-          <t>6.62%</t>
-        </is>
-      </c>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr"/>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="G1240" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1278"/>
+  <dimension ref="A1:G1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30809,10 +30809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30846,10 +30844,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30883,10 +30879,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30920,10 +30914,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30957,10 +30949,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30990,10 +30980,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -31027,10 +31015,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31064,10 +31050,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31097,10 +31081,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31118,10 +31100,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31151,10 +31131,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31180,10 +31158,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31209,10 +31185,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31230,10 +31204,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31259,10 +31231,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31288,10 +31258,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31309,10 +31277,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31338,10 +31304,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31375,10 +31339,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31404,118 +31366,104 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsAPR/11</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>MBA Mortgage Market IndexAPR/11</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>292.3</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>961.4</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>172.7</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
       <c r="G1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -31530,24 +31478,24 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31559,24 +31507,24 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31588,24 +31536,24 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31617,23 +31565,19 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -31645,51 +31589,55 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1194" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E1194" t="inlineStr"/>
       <c r="F1194" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
-      <c r="D1195" t="inlineStr"/>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E1195" t="inlineStr"/>
-      <c r="F1195" t="inlineStr"/>
+      <c r="F1195" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="G1195" t="inlineStr">
         <is>
           <t>2</t>
@@ -31699,24 +31647,24 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
       <c r="D1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>78.2%</t>
         </is>
       </c>
       <c r="E1196" t="inlineStr"/>
       <c r="F1196" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>78.0%</t>
         </is>
       </c>
       <c r="G1196" t="inlineStr">
@@ -31728,28 +31676,24 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1197" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>1.4%</t>
+        </is>
+      </c>
+      <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31761,28 +31705,24 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31794,24 +31734,24 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
@@ -31823,18 +31763,26 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
-      <c r="D1200" t="inlineStr"/>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E1200" t="inlineStr"/>
-      <c r="F1200" t="inlineStr"/>
+      <c r="F1200" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1200" t="inlineStr">
         <is>
           <t>2</t>
@@ -31844,47 +31792,59 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
       <c r="D1201" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>39</t>
         </is>
       </c>
       <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr"/>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>590</t>
-        </is>
-      </c>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -31894,65 +31854,97 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1203" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1203" t="inlineStr"/>
-      <c r="D1203" t="inlineStr"/>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>2.553M</t>
+        </is>
+      </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
-      <c r="G1203" t="inlineStr"/>
+      <c r="G1203" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>-1.6M</t>
+        </is>
+      </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0.36M</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1206" t="inlineStr"/>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.681M</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
-      <c r="F1206" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1206" t="inlineStr"/>
       <c r="G1206" t="inlineStr">
         <is>
           <t>3</t>
@@ -31962,18 +31954,18 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
@@ -31987,18 +31979,18 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32012,110 +32004,118 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
-      <c r="D1209" t="inlineStr"/>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>-0.338M</t>
+        </is>
+      </c>
       <c r="E1209" t="inlineStr"/>
       <c r="F1209" t="inlineStr"/>
       <c r="G1209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1211" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
-      <c r="G1211" t="inlineStr"/>
+      <c r="G1211" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr"/>
       <c r="D1212" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.250%</t>
         </is>
       </c>
       <c r="E1212" t="inlineStr"/>
-      <c r="F1212" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1212" t="inlineStr"/>
       <c r="G1212" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
           <t>2</t>
@@ -32125,84 +32125,72 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAR</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr"/>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -32212,18 +32200,18 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>7.2%</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
@@ -32237,106 +32225,118 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
+      <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
       <c r="C1219" t="inlineStr"/>
       <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr"/>
       <c r="D1220" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>1.459M</t>
         </is>
       </c>
       <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1221" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>Housing StartsMAR</t>
+        </is>
+      </c>
       <c r="C1221" t="inlineStr"/>
-      <c r="D1221" t="inlineStr"/>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>1.501M</t>
+        </is>
+      </c>
       <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
-      <c r="G1221" t="inlineStr"/>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
+      <c r="G1221" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Building Permits MoM PrelMAR</t>
         </is>
       </c>
       <c r="C1222" t="inlineStr"/>
       <c r="D1222" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
       <c r="G1222" t="inlineStr">
         <is>
           <t>2</t>
@@ -32346,97 +32346,105 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>292.3</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>961.4</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t>172.7</t>
-        </is>
-      </c>
+      <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -32451,24 +32459,16 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr"/>
-      <c r="F1227" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32480,24 +32480,20 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32509,24 +32505,20 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32538,21 +32530,17 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
           <t>3</t>
@@ -32567,21 +32555,17 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -32591,55 +32575,47 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>78.2%</t>
+          <t>57Bcf</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
           <t>3</t>
@@ -32649,26 +32625,18 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -32678,26 +32646,18 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -32707,26 +32667,22 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
           <t>3</t>
@@ -32736,88 +32692,68 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1239" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1239" t="inlineStr"/>
+      <c r="E1239" t="inlineStr"/>
+      <c r="F1239" t="inlineStr"/>
       <c r="G1239" t="inlineStr">
         <is>
           <t>3</t>
@@ -32827,941 +32763,95 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>2.553M</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
       <c r="E1240" t="inlineStr"/>
       <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr"/>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>-1.6M</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr"/>
       <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
+      <c r="D1242" t="inlineStr"/>
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1242" t="inlineStr"/>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
+      <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
       <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
+      <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr"/>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr"/>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr"/>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="G1257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr"/>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr"/>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr"/>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr"/>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr"/>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>57Bcf</t>
-        </is>
-      </c>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr"/>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr"/>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr">
-        <is>
-          <t>6.62%</t>
-        </is>
-      </c>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr"/>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr"/>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr"/>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr"/>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr"/>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr"/>
+      <c r="G1244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-04-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1282"/>
+  <dimension ref="A1:G1244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30809,10 +30809,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1166" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1167">
@@ -30846,10 +30844,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1167" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1168">
@@ -30883,10 +30879,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1168" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1169">
@@ -30920,10 +30914,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1169" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1170">
@@ -30957,10 +30949,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1171">
@@ -30990,10 +30980,8 @@
           <t>320.1</t>
         </is>
       </c>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1172">
@@ -31027,10 +31015,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1172" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1173">
@@ -31064,10 +31050,8 @@
           <t>1915.0K</t>
         </is>
       </c>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1173" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1174">
@@ -31097,10 +31081,8 @@
           <t>226.0K</t>
         </is>
       </c>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1175">
@@ -31118,10 +31100,8 @@
       <c r="D1175" t="inlineStr"/>
       <c r="E1175" t="inlineStr"/>
       <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1176">
@@ -31151,10 +31131,8 @@
         </is>
       </c>
       <c r="F1176" t="inlineStr"/>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1177">
@@ -31180,10 +31158,8 @@
       </c>
       <c r="E1177" t="inlineStr"/>
       <c r="F1177" t="inlineStr"/>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1178">
@@ -31209,10 +31185,8 @@
       </c>
       <c r="E1178" t="inlineStr"/>
       <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1179">
@@ -31230,10 +31204,8 @@
       <c r="D1179" t="inlineStr"/>
       <c r="E1179" t="inlineStr"/>
       <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -31259,10 +31231,8 @@
       </c>
       <c r="E1180" t="inlineStr"/>
       <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1181">
@@ -31288,10 +31258,8 @@
       </c>
       <c r="E1181" t="inlineStr"/>
       <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1181" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1182">
@@ -31309,10 +31277,8 @@
       <c r="D1182" t="inlineStr"/>
       <c r="E1182" t="inlineStr"/>
       <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1182" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1183">
@@ -31338,10 +31304,8 @@
       </c>
       <c r="E1183" t="inlineStr"/>
       <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1184">
@@ -31375,10 +31339,8 @@
           <t>$-315.6B</t>
         </is>
       </c>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1184" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1185">
@@ -31404,118 +31366,104 @@
       </c>
       <c r="E1185" t="inlineStr"/>
       <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Friday April 11 2025</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsAPR/11</t>
+        </is>
+      </c>
       <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
       <c r="E1186" t="inlineStr"/>
       <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr"/>
+      <c r="G1186" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>PPI MoMMAR</t>
+          <t>MBA Mortgage Market IndexAPR/11</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr"/>
       <c r="D1187" t="inlineStr">
         <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1187" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F1187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>292.3</t>
+        </is>
+      </c>
+      <c r="E1187" t="inlineStr"/>
+      <c r="F1187" t="inlineStr"/>
       <c r="G1187" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Core PPI MoMMAR</t>
+          <t>MBA Mortgage Refinance IndexAPR/11</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr"/>
       <c r="D1188" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1188" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1188" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>961.4</t>
+        </is>
+      </c>
+      <c r="E1188" t="inlineStr"/>
+      <c r="F1188" t="inlineStr"/>
       <c r="G1188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>Core PPI YoYMAR</t>
+          <t>MBA Purchase IndexAPR/11</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr"/>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1189" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>172.7</t>
+        </is>
+      </c>
+      <c r="E1189" t="inlineStr"/>
+      <c r="F1189" t="inlineStr"/>
       <c r="G1189" t="inlineStr">
         <is>
           <t>3</t>
@@ -31530,24 +31478,24 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>PPIMAR</t>
+          <t>Retail Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr"/>
       <c r="D1190" t="inlineStr">
         <is>
-          <t>147.953</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1190" t="inlineStr"/>
       <c r="F1190" t="inlineStr">
         <is>
-          <t>148.1</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -31559,24 +31507,24 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMMAR</t>
+          <t>Retail Sales Control Group MoMMAR</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr"/>
       <c r="D1191" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="E1191" t="inlineStr"/>
       <c r="F1191" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31588,24 +31536,24 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYMAR</t>
+          <t>Retail Sales Ex Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr"/>
       <c r="D1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1192" t="inlineStr"/>
       <c r="F1192" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -31617,23 +31565,19 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>PPI YoYMAR</t>
+          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr"/>
       <c r="D1193" t="inlineStr">
         <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E1193" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1193" t="inlineStr"/>
       <c r="F1193" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1193" t="inlineStr">
@@ -31645,99 +31589,111 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Fed Collins Speech</t>
+          <t>Retail Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr"/>
-      <c r="D1194" t="inlineStr"/>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
       <c r="E1194" t="inlineStr"/>
-      <c r="F1194" t="inlineStr"/>
+      <c r="F1194" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="G1194" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelAPR</t>
+          <t>Industrial Production MoMMAR</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr"/>
       <c r="D1195" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1195" t="inlineStr">
-        <is>
-          <t>54.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1195" t="inlineStr"/>
       <c r="F1195" t="inlineStr">
         <is>
-          <t>54.4</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1195" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Fed Musalem Speech</t>
+          <t>Capacity UtilizationMAR</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr"/>
-      <c r="D1196" t="inlineStr"/>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>78.2%</t>
+        </is>
+      </c>
       <c r="E1196" t="inlineStr"/>
-      <c r="F1196" t="inlineStr"/>
+      <c r="F1196" t="inlineStr">
+        <is>
+          <t>78.0%</t>
+        </is>
+      </c>
       <c r="G1196" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelAPR</t>
+          <t>Industrial Production YoYMAR</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr"/>
       <c r="D1197" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="E1197" t="inlineStr"/>
       <c r="F1197" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G1197" t="inlineStr">
@@ -31749,28 +31705,24 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelAPR</t>
+          <t>Manufacturing Production MoMMAR</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr"/>
       <c r="D1198" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1198" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1198" t="inlineStr"/>
       <c r="F1198" t="inlineStr">
         <is>
-          <t>50.3</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1198" t="inlineStr">
@@ -31782,28 +31734,24 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>08:15 AM</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelAPR</t>
+          <t>Manufacturing Production YoYMAR</t>
         </is>
       </c>
       <c r="C1199" t="inlineStr"/>
       <c r="D1199" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1199" t="inlineStr">
-        <is>
-          <t>61.5</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1199" t="inlineStr"/>
       <c r="F1199" t="inlineStr">
         <is>
-          <t>61.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="G1199" t="inlineStr">
@@ -31820,42 +31768,50 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelAPR</t>
+          <t>Business Inventories MoMFEB</t>
         </is>
       </c>
       <c r="C1200" t="inlineStr"/>
       <c r="D1200" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1200" t="inlineStr"/>
       <c r="F1200" t="inlineStr">
         <is>
-          <t>5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1200" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>NAHB Housing Market IndexAPR</t>
         </is>
       </c>
       <c r="C1201" t="inlineStr"/>
-      <c r="D1201" t="inlineStr"/>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
       <c r="E1201" t="inlineStr"/>
-      <c r="F1201" t="inlineStr"/>
+      <c r="F1201" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
       <c r="G1201" t="inlineStr">
         <is>
           <t>2</t>
@@ -31865,22 +31821,30 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/11</t>
+          <t>Retail Inventories Ex Autos MoMFEB</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr"/>
       <c r="D1202" t="inlineStr">
         <is>
-          <t>489</t>
-        </is>
-      </c>
-      <c r="E1202" t="inlineStr"/>
-      <c r="F1202" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1202" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1202" t="inlineStr">
         <is>
           <t>3</t>
@@ -31890,90 +31854,122 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/11</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr"/>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>2.553M</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr"/>
       <c r="F1203" t="inlineStr"/>
       <c r="G1203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Saturday April 12 2025</t>
-        </is>
-      </c>
-      <c r="B1204" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1204" t="inlineStr"/>
-      <c r="D1204" t="inlineStr"/>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>-1.6M</t>
+        </is>
+      </c>
       <c r="E1204" t="inlineStr"/>
       <c r="F1204" t="inlineStr"/>
-      <c r="G1204" t="inlineStr"/>
+      <c r="G1204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Sunday April 13 2025</t>
-        </is>
-      </c>
-      <c r="B1205" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1205" t="inlineStr"/>
-      <c r="D1205" t="inlineStr"/>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>0.36M</t>
+        </is>
+      </c>
       <c r="E1205" t="inlineStr"/>
       <c r="F1205" t="inlineStr"/>
-      <c r="G1205" t="inlineStr"/>
+      <c r="G1205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Monday April 14 2025</t>
-        </is>
-      </c>
-      <c r="B1206" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
+        </is>
+      </c>
       <c r="C1206" t="inlineStr"/>
-      <c r="D1206" t="inlineStr"/>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>0.681M</t>
+        </is>
+      </c>
       <c r="E1206" t="inlineStr"/>
       <c r="F1206" t="inlineStr"/>
-      <c r="G1206" t="inlineStr"/>
+      <c r="G1206" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsMAR</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1207" t="inlineStr"/>
       <c r="D1207" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-0.019M</t>
         </is>
       </c>
       <c r="E1207" t="inlineStr"/>
-      <c r="F1207" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F1207" t="inlineStr"/>
       <c r="G1207" t="inlineStr">
         <is>
           <t>3</t>
@@ -31983,18 +31979,18 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>EIA Distillate Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1208" t="inlineStr"/>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>4.175%</t>
+          <t>-3.544M</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr"/>
@@ -32008,18 +32004,18 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>EIA Gasoline Production ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1209" t="inlineStr"/>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>4.000%</t>
+          <t>-0.338M</t>
         </is>
       </c>
       <c r="E1209" t="inlineStr"/>
@@ -32033,81 +32029,93 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1210" t="inlineStr"/>
-      <c r="D1210" t="inlineStr"/>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>-0.02M</t>
+        </is>
+      </c>
       <c r="E1210" t="inlineStr"/>
       <c r="F1210" t="inlineStr"/>
       <c r="G1210" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>06:40 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr"/>
-      <c r="D1211" t="inlineStr"/>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>0.069M</t>
+        </is>
+      </c>
       <c r="E1211" t="inlineStr"/>
       <c r="F1211" t="inlineStr"/>
       <c r="G1211" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>Tuesday April 15 2025</t>
-        </is>
-      </c>
-      <c r="B1212" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1212" t="inlineStr"/>
-      <c r="D1212" t="inlineStr"/>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>4.250%</t>
+        </is>
+      </c>
       <c r="E1212" t="inlineStr"/>
       <c r="F1212" t="inlineStr"/>
-      <c r="G1212" t="inlineStr"/>
+      <c r="G1212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Export Prices MoMMAR</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C1213" t="inlineStr"/>
-      <c r="D1213" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="D1213" t="inlineStr"/>
       <c r="E1213" t="inlineStr"/>
-      <c r="F1213" t="inlineStr">
-        <is>
-          <t>1.1%</t>
-        </is>
-      </c>
+      <c r="F1213" t="inlineStr"/>
       <c r="G1213" t="inlineStr">
         <is>
           <t>2</t>
@@ -32117,55 +32125,47 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Import Prices MoMMAR</t>
+          <t>20-Year Bond Auction</t>
         </is>
       </c>
       <c r="C1214" t="inlineStr"/>
       <c r="D1214" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>4.632%</t>
         </is>
       </c>
       <c r="E1214" t="inlineStr"/>
-      <c r="F1214" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1214" t="inlineStr"/>
       <c r="G1214" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexAPR</t>
+          <t>Net Long-term TIC FlowsFEB</t>
         </is>
       </c>
       <c r="C1215" t="inlineStr"/>
       <c r="D1215" t="inlineStr">
         <is>
-          <t>-20</t>
+          <t>$-45.2B</t>
         </is>
       </c>
       <c r="E1215" t="inlineStr"/>
-      <c r="F1215" t="inlineStr">
-        <is>
-          <t>-22</t>
-        </is>
-      </c>
+      <c r="F1215" t="inlineStr"/>
       <c r="G1215" t="inlineStr">
         <is>
           <t>2</t>
@@ -32175,26 +32175,22 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Export Prices YoYMAR</t>
+          <t>Foreign Bond InvestmentFEB</t>
         </is>
       </c>
       <c r="C1216" t="inlineStr"/>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>$-13.3B</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr"/>
-      <c r="F1216" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="F1216" t="inlineStr"/>
       <c r="G1216" t="inlineStr">
         <is>
           <t>3</t>
@@ -32204,26 +32200,22 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Import Prices YoYMAR</t>
+          <t>Overall Net Capital FlowsFEB</t>
         </is>
       </c>
       <c r="C1217" t="inlineStr"/>
       <c r="D1217" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>$-48.8B</t>
         </is>
       </c>
       <c r="E1217" t="inlineStr"/>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1217" t="inlineStr"/>
       <c r="G1217" t="inlineStr">
         <is>
           <t>3</t>
@@ -32233,131 +32225,147 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/12</t>
+          <t>Fed Schmid Speech</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr"/>
-      <c r="D1218" t="inlineStr">
-        <is>
-          <t>7.2%</t>
-        </is>
-      </c>
+      <c r="D1218" t="inlineStr"/>
       <c r="E1218" t="inlineStr"/>
       <c r="F1218" t="inlineStr"/>
       <c r="G1218" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1219" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday April 17 2025</t>
+        </is>
+      </c>
+      <c r="B1219" t="inlineStr"/>
       <c r="C1219" t="inlineStr"/>
-      <c r="D1219" t="inlineStr">
-        <is>
-          <t>3.945%</t>
-        </is>
-      </c>
+      <c r="D1219" t="inlineStr"/>
       <c r="E1219" t="inlineStr"/>
       <c r="F1219" t="inlineStr"/>
-      <c r="G1219" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1219" t="inlineStr"/>
     </row>
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Building Permits PrelMAR</t>
         </is>
       </c>
       <c r="C1220" t="inlineStr"/>
-      <c r="D1220" t="inlineStr"/>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>1.459M</t>
+        </is>
+      </c>
       <c r="E1220" t="inlineStr"/>
-      <c r="F1220" t="inlineStr"/>
+      <c r="F1220" t="inlineStr">
+        <is>
+          <t>1.4M</t>
+        </is>
+      </c>
       <c r="G1220" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/11</t>
+          <t>Housing StartsMAR</t>
         </is>
       </c>
       <c r="C1221" t="inlineStr"/>
       <c r="D1221" t="inlineStr">
         <is>
-          <t>-1.057M</t>
+          <t>1.501M</t>
         </is>
       </c>
       <c r="E1221" t="inlineStr"/>
-      <c r="F1221" t="inlineStr"/>
+      <c r="F1221" t="inlineStr">
+        <is>
+          <t>1.42M</t>
+        </is>
+      </c>
       <c r="G1221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>Wednesday April 16 2025</t>
-        </is>
-      </c>
-      <c r="B1222" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>Building Permits MoM PrelMAR</t>
+        </is>
+      </c>
       <c r="C1222" t="inlineStr"/>
-      <c r="D1222" t="inlineStr"/>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="E1222" t="inlineStr"/>
-      <c r="F1222" t="inlineStr"/>
-      <c r="G1222" t="inlineStr"/>
+      <c r="F1222" t="inlineStr">
+        <is>
+          <t>-4%</t>
+        </is>
+      </c>
+      <c r="G1222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/11</t>
+          <t>Housing Starts MoMMAR</t>
         </is>
       </c>
       <c r="C1223" t="inlineStr"/>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>6.61%</t>
+          <t>11.2%</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
-      <c r="F1223" t="inlineStr"/>
+      <c r="F1223" t="inlineStr">
+        <is>
+          <t>-5.3%</t>
+        </is>
+      </c>
       <c r="G1223" t="inlineStr">
         <is>
           <t>2</t>
@@ -32367,72 +32375,76 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/11</t>
+          <t>Initial Jobless ClaimsAPR/12</t>
         </is>
       </c>
       <c r="C1224" t="inlineStr"/>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>223K</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
       <c r="F1224" t="inlineStr"/>
       <c r="G1224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/11</t>
+          <t>Philadelphia Fed Manufacturing IndexAPR</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr"/>
       <c r="D1225" t="inlineStr">
         <is>
-          <t>292.3</t>
+          <t>12.5</t>
         </is>
       </c>
       <c r="E1225" t="inlineStr"/>
-      <c r="F1225" t="inlineStr"/>
+      <c r="F1225" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="G1225" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/11</t>
+          <t>Continuing Jobless ClaimsAPR/05</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr"/>
-      <c r="D1226" t="inlineStr">
-        <is>
-          <t>961.4</t>
-        </is>
-      </c>
+      <c r="D1226" t="inlineStr"/>
       <c r="E1226" t="inlineStr"/>
-      <c r="F1226" t="inlineStr"/>
+      <c r="F1226" t="inlineStr">
+        <is>
+          <t>1950K</t>
+        </is>
+      </c>
       <c r="G1226" t="inlineStr">
         <is>
           <t>3</t>
@@ -32442,20 +32454,16 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/11</t>
+          <t>Jobless Claims 4-week AverageAPR/12</t>
         </is>
       </c>
       <c r="C1227" t="inlineStr"/>
-      <c r="D1227" t="inlineStr">
-        <is>
-          <t>172.7</t>
-        </is>
-      </c>
+      <c r="D1227" t="inlineStr"/>
       <c r="E1227" t="inlineStr"/>
       <c r="F1227" t="inlineStr"/>
       <c r="G1227" t="inlineStr">
@@ -32472,24 +32480,20 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Retail Sales MoMMAR</t>
+          <t>Philly Fed Business ConditionsAPR</t>
         </is>
       </c>
       <c r="C1228" t="inlineStr"/>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>5.6</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1228" t="inlineStr"/>
       <c r="G1228" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32501,24 +32505,20 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMMAR</t>
+          <t>Philly Fed CAPEX IndexAPR</t>
         </is>
       </c>
       <c r="C1229" t="inlineStr"/>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>13.40</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr"/>
-      <c r="F1229" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1229" t="inlineStr"/>
       <c r="G1229" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32530,24 +32530,20 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMMAR</t>
+          <t>Philly Fed EmploymentAPR</t>
         </is>
       </c>
       <c r="C1230" t="inlineStr"/>
       <c r="D1230" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="E1230" t="inlineStr"/>
-      <c r="F1230" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1230" t="inlineStr"/>
       <c r="G1230" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -32559,21 +32555,17 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMMAR</t>
+          <t>Philly Fed New OrdersAPR</t>
         </is>
       </c>
       <c r="C1231" t="inlineStr"/>
       <c r="D1231" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>8.7</t>
         </is>
       </c>
       <c r="E1231" t="inlineStr"/>
-      <c r="F1231" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1231" t="inlineStr"/>
       <c r="G1231" t="inlineStr">
         <is>
           <t>3</t>
@@ -32588,21 +32580,17 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Retail Sales YoYMAR</t>
+          <t>Philly Fed Prices PaidAPR</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr"/>
       <c r="D1232" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>48.30</t>
         </is>
       </c>
       <c r="E1232" t="inlineStr"/>
-      <c r="F1232" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="F1232" t="inlineStr"/>
       <c r="G1232" t="inlineStr">
         <is>
           <t>3</t>
@@ -32612,55 +32600,43 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Industrial Production MoMMAR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr"/>
       <c r="D1233" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>57Bcf</t>
         </is>
       </c>
       <c r="E1233" t="inlineStr"/>
-      <c r="F1233" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="F1233" t="inlineStr"/>
       <c r="G1233" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Capacity UtilizationMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1234" t="inlineStr"/>
-      <c r="D1234" t="inlineStr">
-        <is>
-          <t>78.2%</t>
-        </is>
-      </c>
+      <c r="D1234" t="inlineStr"/>
       <c r="E1234" t="inlineStr"/>
-      <c r="F1234" t="inlineStr">
-        <is>
-          <t>78.0%</t>
-        </is>
-      </c>
+      <c r="F1234" t="inlineStr"/>
       <c r="G1234" t="inlineStr">
         <is>
           <t>3</t>
@@ -32670,26 +32646,18 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Industrial Production YoYMAR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1235" t="inlineStr"/>
-      <c r="D1235" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
+      <c r="D1235" t="inlineStr"/>
       <c r="E1235" t="inlineStr"/>
-      <c r="F1235" t="inlineStr">
-        <is>
-          <t>1.2%</t>
-        </is>
-      </c>
+      <c r="F1235" t="inlineStr"/>
       <c r="G1235" t="inlineStr">
         <is>
           <t>3</t>
@@ -32699,26 +32667,22 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMMAR</t>
+          <t>15-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1236" t="inlineStr"/>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr"/>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1236" t="inlineStr"/>
       <c r="G1236" t="inlineStr">
         <is>
           <t>3</t>
@@ -32728,26 +32692,22 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>08:15 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYMAR</t>
+          <t>30-Year Mortgage RateAPR/17</t>
         </is>
       </c>
       <c r="C1237" t="inlineStr"/>
       <c r="D1237" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>6.62%</t>
         </is>
       </c>
       <c r="E1237" t="inlineStr"/>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="F1237" t="inlineStr"/>
       <c r="G1237" t="inlineStr">
         <is>
           <t>3</t>
@@ -32757,88 +32717,64 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>Business Inventories MoMFEB</t>
+          <t>5-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1238" t="inlineStr"/>
       <c r="D1238" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2.121%</t>
         </is>
       </c>
       <c r="E1238" t="inlineStr"/>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1238" t="inlineStr"/>
       <c r="G1238" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexAPR</t>
+          <t>Baker Hughes Oil Rig CountAPR/18</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr"/>
-      <c r="D1239" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+      <c r="D1239" t="inlineStr"/>
       <c r="E1239" t="inlineStr"/>
-      <c r="F1239" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+      <c r="F1239" t="inlineStr"/>
       <c r="G1239" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMFEB</t>
+          <t>Baker Hughes Total Rigs CountAPR/18</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr"/>
-      <c r="D1240" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1240" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F1240" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1240" t="inlineStr"/>
+      <c r="E1240" t="inlineStr"/>
+      <c r="F1240" t="inlineStr"/>
       <c r="G1240" t="inlineStr">
         <is>
           <t>3</t>
@@ -32848,1004 +32784,74 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/11</t>
+          <t>Fed Balance SheetAPR/16</t>
         </is>
       </c>
       <c r="C1241" t="inlineStr"/>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>2.553M</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr"/>
       <c r="F1241" t="inlineStr"/>
       <c r="G1241" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1242" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Friday April 18 2025</t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr"/>
       <c r="C1242" t="inlineStr"/>
-      <c r="D1242" t="inlineStr">
-        <is>
-          <t>-1.6M</t>
-        </is>
-      </c>
+      <c r="D1242" t="inlineStr"/>
       <c r="E1242" t="inlineStr"/>
       <c r="F1242" t="inlineStr"/>
-      <c r="G1242" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1242" t="inlineStr"/>
     </row>
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/11</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1243" t="inlineStr"/>
-      <c r="D1243" t="inlineStr">
-        <is>
-          <t>0.36M</t>
-        </is>
-      </c>
+      <c r="D1243" t="inlineStr"/>
       <c r="E1243" t="inlineStr"/>
       <c r="F1243" t="inlineStr"/>
       <c r="G1243" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1244" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
+          <t>Saturday April 19 2025</t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr"/>
       <c r="C1244" t="inlineStr"/>
-      <c r="D1244" t="inlineStr">
-        <is>
-          <t>0.681M</t>
-        </is>
-      </c>
+      <c r="D1244" t="inlineStr"/>
       <c r="E1244" t="inlineStr"/>
       <c r="F1244" t="inlineStr"/>
-      <c r="G1244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1245" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1245" t="inlineStr"/>
-      <c r="D1245" t="inlineStr">
-        <is>
-          <t>-0.019M</t>
-        </is>
-      </c>
-      <c r="E1245" t="inlineStr"/>
-      <c r="F1245" t="inlineStr"/>
-      <c r="G1245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1246" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1246" t="inlineStr"/>
-      <c r="D1246" t="inlineStr">
-        <is>
-          <t>-3.544M</t>
-        </is>
-      </c>
-      <c r="E1246" t="inlineStr"/>
-      <c r="F1246" t="inlineStr"/>
-      <c r="G1246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1247" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1247" t="inlineStr"/>
-      <c r="D1247" t="inlineStr">
-        <is>
-          <t>-0.338M</t>
-        </is>
-      </c>
-      <c r="E1247" t="inlineStr"/>
-      <c r="F1247" t="inlineStr"/>
-      <c r="G1247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1248" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1248" t="inlineStr"/>
-      <c r="D1248" t="inlineStr">
-        <is>
-          <t>-0.02M</t>
-        </is>
-      </c>
-      <c r="E1248" t="inlineStr"/>
-      <c r="F1248" t="inlineStr"/>
-      <c r="G1248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1249" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1249" t="inlineStr"/>
-      <c r="D1249" t="inlineStr">
-        <is>
-          <t>0.069M</t>
-        </is>
-      </c>
-      <c r="E1249" t="inlineStr"/>
-      <c r="F1249" t="inlineStr"/>
-      <c r="G1249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1250" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1250" t="inlineStr"/>
-      <c r="D1250" t="inlineStr">
-        <is>
-          <t>4.250%</t>
-        </is>
-      </c>
-      <c r="E1250" t="inlineStr"/>
-      <c r="F1250" t="inlineStr"/>
-      <c r="G1250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1251" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C1251" t="inlineStr"/>
-      <c r="D1251" t="inlineStr"/>
-      <c r="E1251" t="inlineStr"/>
-      <c r="F1251" t="inlineStr"/>
-      <c r="G1251" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1252" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1252" t="inlineStr"/>
-      <c r="D1252" t="inlineStr">
-        <is>
-          <t>4.632%</t>
-        </is>
-      </c>
-      <c r="E1252" t="inlineStr"/>
-      <c r="F1252" t="inlineStr"/>
-      <c r="G1252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1253" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1253" t="inlineStr"/>
-      <c r="D1253" t="inlineStr">
-        <is>
-          <t>$-45.2B</t>
-        </is>
-      </c>
-      <c r="E1253" t="inlineStr"/>
-      <c r="F1253" t="inlineStr"/>
-      <c r="G1253" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1254" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentFEB</t>
-        </is>
-      </c>
-      <c r="C1254" t="inlineStr"/>
-      <c r="D1254" t="inlineStr">
-        <is>
-          <t>$-13.3B</t>
-        </is>
-      </c>
-      <c r="E1254" t="inlineStr"/>
-      <c r="F1254" t="inlineStr"/>
-      <c r="G1254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>03:00 PM</t>
-        </is>
-      </c>
-      <c r="B1255" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsFEB</t>
-        </is>
-      </c>
-      <c r="C1255" t="inlineStr"/>
-      <c r="D1255" t="inlineStr">
-        <is>
-          <t>$-48.8B</t>
-        </is>
-      </c>
-      <c r="E1255" t="inlineStr"/>
-      <c r="F1255" t="inlineStr"/>
-      <c r="G1255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1256" t="inlineStr">
-        <is>
-          <t>Fed Schmid Speech</t>
-        </is>
-      </c>
-      <c r="C1256" t="inlineStr"/>
-      <c r="D1256" t="inlineStr"/>
-      <c r="E1256" t="inlineStr"/>
-      <c r="F1256" t="inlineStr"/>
-      <c r="G1256" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>Thursday April 17 2025</t>
-        </is>
-      </c>
-      <c r="B1257" t="inlineStr"/>
-      <c r="C1257" t="inlineStr"/>
-      <c r="D1257" t="inlineStr"/>
-      <c r="E1257" t="inlineStr"/>
-      <c r="F1257" t="inlineStr"/>
-      <c r="G1257" t="inlineStr"/>
-    </row>
-    <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1258" t="inlineStr">
-        <is>
-          <t>Building Permits PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1258" t="inlineStr"/>
-      <c r="D1258" t="inlineStr">
-        <is>
-          <t>1.459M</t>
-        </is>
-      </c>
-      <c r="E1258" t="inlineStr"/>
-      <c r="F1258" t="inlineStr">
-        <is>
-          <t>1.4M</t>
-        </is>
-      </c>
-      <c r="G1258" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1259" t="inlineStr">
-        <is>
-          <t>Housing StartsMAR</t>
-        </is>
-      </c>
-      <c r="C1259" t="inlineStr"/>
-      <c r="D1259" t="inlineStr">
-        <is>
-          <t>1.501M</t>
-        </is>
-      </c>
-      <c r="E1259" t="inlineStr"/>
-      <c r="F1259" t="inlineStr">
-        <is>
-          <t>1.42M</t>
-        </is>
-      </c>
-      <c r="G1259" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1260" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelMAR</t>
-        </is>
-      </c>
-      <c r="C1260" t="inlineStr"/>
-      <c r="D1260" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E1260" t="inlineStr"/>
-      <c r="F1260" t="inlineStr">
-        <is>
-          <t>-4%</t>
-        </is>
-      </c>
-      <c r="G1260" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1261" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1261" t="inlineStr"/>
-      <c r="D1261" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1261" t="inlineStr"/>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>-5.3%</t>
-        </is>
-      </c>
-      <c r="G1261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1262" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/12</t>
-        </is>
-      </c>
-      <c r="C1262" t="inlineStr"/>
-      <c r="D1262" t="inlineStr">
-        <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E1262" t="inlineStr"/>
-      <c r="F1262" t="inlineStr"/>
-      <c r="G1262" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1263" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1263" t="inlineStr"/>
-      <c r="D1263" t="inlineStr">
-        <is>
-          <t>12.5</t>
-        </is>
-      </c>
-      <c r="E1263" t="inlineStr"/>
-      <c r="F1263" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G1263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1264" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/05</t>
-        </is>
-      </c>
-      <c r="C1264" t="inlineStr"/>
-      <c r="D1264" t="inlineStr"/>
-      <c r="E1264" t="inlineStr"/>
-      <c r="F1264" t="inlineStr">
-        <is>
-          <t>1950K</t>
-        </is>
-      </c>
-      <c r="G1264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1265" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/12</t>
-        </is>
-      </c>
-      <c r="C1265" t="inlineStr"/>
-      <c r="D1265" t="inlineStr"/>
-      <c r="E1265" t="inlineStr"/>
-      <c r="F1265" t="inlineStr"/>
-      <c r="G1265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1266">
-      <c r="A1266" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1266" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsAPR</t>
-        </is>
-      </c>
-      <c r="C1266" t="inlineStr"/>
-      <c r="D1266" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E1266" t="inlineStr"/>
-      <c r="F1266" t="inlineStr"/>
-      <c r="G1266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1267">
-      <c r="A1267" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1267" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexAPR</t>
-        </is>
-      </c>
-      <c r="C1267" t="inlineStr"/>
-      <c r="D1267" t="inlineStr">
-        <is>
-          <t>13.40</t>
-        </is>
-      </c>
-      <c r="E1267" t="inlineStr"/>
-      <c r="F1267" t="inlineStr"/>
-      <c r="G1267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1268">
-      <c r="A1268" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1268" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1268" t="inlineStr"/>
-      <c r="D1268" t="inlineStr">
-        <is>
-          <t>19.7</t>
-        </is>
-      </c>
-      <c r="E1268" t="inlineStr"/>
-      <c r="F1268" t="inlineStr"/>
-      <c r="G1268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1269">
-      <c r="A1269" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1269" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1269" t="inlineStr"/>
-      <c r="D1269" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="E1269" t="inlineStr"/>
-      <c r="F1269" t="inlineStr"/>
-      <c r="G1269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1270">
-      <c r="A1270" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1270" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidAPR</t>
-        </is>
-      </c>
-      <c r="C1270" t="inlineStr"/>
-      <c r="D1270" t="inlineStr">
-        <is>
-          <t>48.30</t>
-        </is>
-      </c>
-      <c r="E1270" t="inlineStr"/>
-      <c r="F1270" t="inlineStr"/>
-      <c r="G1270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1271">
-      <c r="A1271" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1271" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/11</t>
-        </is>
-      </c>
-      <c r="C1271" t="inlineStr"/>
-      <c r="D1271" t="inlineStr">
-        <is>
-          <t>57Bcf</t>
-        </is>
-      </c>
-      <c r="E1271" t="inlineStr"/>
-      <c r="F1271" t="inlineStr"/>
-      <c r="G1271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1272">
-      <c r="A1272" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1272" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1272" t="inlineStr"/>
-      <c r="D1272" t="inlineStr"/>
-      <c r="E1272" t="inlineStr"/>
-      <c r="F1272" t="inlineStr"/>
-      <c r="G1272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1273">
-      <c r="A1273" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1273" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1273" t="inlineStr"/>
-      <c r="D1273" t="inlineStr"/>
-      <c r="E1273" t="inlineStr"/>
-      <c r="F1273" t="inlineStr"/>
-      <c r="G1273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1274">
-      <c r="A1274" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1274" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1274" t="inlineStr"/>
-      <c r="D1274" t="inlineStr">
-        <is>
-          <t>5.82%</t>
-        </is>
-      </c>
-      <c r="E1274" t="inlineStr"/>
-      <c r="F1274" t="inlineStr"/>
-      <c r="G1274" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1275">
-      <c r="A1275" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1275" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateAPR/17</t>
-        </is>
-      </c>
-      <c r="C1275" t="inlineStr"/>
-      <c r="D1275" t="inlineStr">
-        <is>
-          <t>6.62%</t>
-        </is>
-      </c>
-      <c r="E1275" t="inlineStr"/>
-      <c r="F1275" t="inlineStr"/>
-      <c r="G1275" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1276">
-      <c r="A1276" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1276" t="inlineStr">
-        <is>
-          <t>5-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1276" t="inlineStr"/>
-      <c r="D1276" t="inlineStr">
-        <is>
-          <t>2.121%</t>
-        </is>
-      </c>
-      <c r="E1276" t="inlineStr"/>
-      <c r="F1276" t="inlineStr"/>
-      <c r="G1276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1277">
-      <c r="A1277" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1277" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1277" t="inlineStr"/>
-      <c r="D1277" t="inlineStr"/>
-      <c r="E1277" t="inlineStr"/>
-      <c r="F1277" t="inlineStr"/>
-      <c r="G1277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1278">
-      <c r="A1278" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1278" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/18</t>
-        </is>
-      </c>
-      <c r="C1278" t="inlineStr"/>
-      <c r="D1278" t="inlineStr"/>
-      <c r="E1278" t="inlineStr"/>
-      <c r="F1278" t="inlineStr"/>
-      <c r="G1278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1279">
-      <c r="A1279" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1279" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/16</t>
-        </is>
-      </c>
-      <c r="C1279" t="inlineStr"/>
-      <c r="D1279" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1279" t="inlineStr"/>
-      <c r="F1279" t="inlineStr"/>
-      <c r="G1279" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1280">
-      <c r="A1280" t="inlineStr">
-        <is>
-          <t>Friday April 18 2025</t>
-        </is>
-      </c>
-      <c r="B1280" t="inlineStr"/>
-      <c r="C1280" t="inlineStr"/>
-      <c r="D1280" t="inlineStr"/>
-      <c r="E1280" t="inlineStr"/>
-      <c r="F1280" t="inlineStr"/>
-      <c r="G1280" t="inlineStr"/>
-    </row>
-    <row r="1281">
-      <c r="A1281" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B1281" t="inlineStr">
-        <is>
-          <t>Fed Daly Speech</t>
-        </is>
-      </c>
-      <c r="C1281" t="inlineStr"/>
-      <c r="D1281" t="inlineStr"/>
-      <c r="E1281" t="inlineStr"/>
-      <c r="F1281" t="inlineStr"/>
-      <c r="G1281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1282">
-      <c r="A1282" t="inlineStr">
-        <is>
-          <t>Saturday April 19 2025</t>
-        </is>
-      </c>
-      <c r="B1282" t="inlineStr"/>
-      <c r="C1282" t="inlineStr"/>
-      <c r="D1282" t="inlineStr"/>
-      <c r="E1282" t="inlineStr"/>
-      <c r="F1282" t="inlineStr"/>
-      <c r="G1282" t="inlineStr"/>
+      <c r="G1244" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
